--- a/Others/Get free diamonds in King of Glory.xlsx
+++ b/Others/Get free diamonds in King of Glory.xlsx
@@ -515,7 +515,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7">
         <v>7</v>
@@ -607,11 +607,11 @@
       </c>
       <c r="E4" s="7">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="F4" s="7">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -807,11 +807,11 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3">
         <f>SUM(E2:E10)</f>
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="F14" s="3">
         <f>SUM(F2:F10)</f>
-        <v>578</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -823,11 +823,11 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4">
         <f>SUM(E2:E12)</f>
-        <v>950</v>
+        <v>810</v>
       </c>
       <c r="F15" s="4">
         <f>SUM(F2:F12)</f>
-        <v>878</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
